--- a/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
@@ -735,67 +735,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30385</t>
+          <t>26028</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26521</t>
+          <t>22418</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34272</t>
+          <t>29671</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47265</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43062</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>52115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>38,92%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>52086</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>47342</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>57369</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>40,77%</t>
-        </is>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>82471</t>
+          <t>73294</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>76213</t>
+          <t>67629</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>89089</t>
+          <t>79063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>38,76%</t>
         </is>
       </c>
     </row>
@@ -848,67 +848,67 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57679</t>
+          <t>56514</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53792</t>
+          <t>52871</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61543</t>
+          <t>60124</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>64,05%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72,84%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>74187</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69337</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>78390</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>61,08%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>69,88%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>75658</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>70375</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>80402</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>59,23%</t>
-        </is>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>133338</t>
+          <t>130700</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>126720</t>
+          <t>124931</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>139596</t>
+          <t>136365</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>66,85%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94392</t>
+          <t>87102</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86930</t>
+          <t>80089</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>101999</t>
+          <t>94568</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69341</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63038</t>
+          <t>63012</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76384</t>
+          <t>76390</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>163732</t>
+          <t>156505</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>154333</t>
+          <t>146146</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>174005</t>
+          <t>166272</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>359099</t>
+          <t>374577</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>351492</t>
+          <t>367111</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>366561</t>
+          <t>381590</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,19%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,51%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>362461</t>
+          <t>374954</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>355418</t>
+          <t>367967</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>368764</t>
+          <t>381345</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>721561</t>
+          <t>749530</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>711288</t>
+          <t>739763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>730960</t>
+          <t>759889</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>83,87%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20640</t>
+          <t>23290</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16880</t>
+          <t>19448</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24456</t>
+          <t>27431</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13168</t>
+          <t>16831</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10531</t>
+          <t>13588</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16404</t>
+          <t>21098</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>33808</t>
+          <t>40120</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29356</t>
+          <t>34701</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>38848</t>
+          <t>45252</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>130985</t>
+          <t>152271</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>127169</t>
+          <t>148130</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>134745</t>
+          <t>156113</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>181069</t>
+          <t>211163</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>177833</t>
+          <t>206896</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>183706</t>
+          <t>214406</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>312055</t>
+          <t>363435</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>307015</t>
+          <t>358303</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>316507</t>
+          <t>368854</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>145417</t>
+          <t>136419</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>135922</t>
+          <t>127562</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>155595</t>
+          <t>146498</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>134595</t>
+          <t>133500</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>125443</t>
+          <t>124453</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>144452</t>
+          <t>143034</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>280012</t>
+          <t>269919</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>268274</t>
+          <t>257213</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>292561</t>
+          <t>282459</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>18,66%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>547764</t>
+          <t>583362</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>537586</t>
+          <t>573283</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>557259</t>
+          <t>592219</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,02%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>619189</t>
+          <t>660303</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>609332</t>
+          <t>650769</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>628341</t>
+          <t>669350</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1166953</t>
+          <t>1243665</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1154404</t>
+          <t>1231125</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1178691</t>
+          <t>1256371</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>83,01%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66097</t>
+          <t>66008</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92107</t>
+          <t>92020</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>172889</t>
+          <t>172495</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>204705</t>
+          <t>204711</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>246635</t>
+          <t>246921</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>290156</t>
+          <t>290654</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>46,62%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>136190</t>
+          <t>136277</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>162200</t>
+          <t>162289</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,05%</t>
+          <t>71,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>190385</t>
+          <t>190379</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>222201</t>
+          <t>222595</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>56,34%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>333231</t>
+          <t>332733</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>376752</t>
+          <t>376466</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>53,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>60,39%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>103606</t>
+          <t>97552</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>225514</t>
+          <t>227317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168482</t>
+          <t>166438</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>708865</t>
+          <t>773430</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>329775</t>
+          <t>330445</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1140482</t>
+          <t>1113815</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>39,86%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1182996</t>
+          <t>1181193</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1304904</t>
+          <t>1310958</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>676946</t>
+          <t>612381</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1217329</t>
+          <t>1219373</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>44,19%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,84%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1653839</t>
+          <t>1680506</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2464546</t>
+          <t>2463876</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>88,17%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69273</t>
+          <t>70476</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99460</t>
+          <t>101179</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41598</t>
+          <t>41898</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62289</t>
+          <t>62987</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>117115</t>
+          <t>117912</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>153380</t>
+          <t>156023</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>17,27%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>360341</t>
+          <t>358622</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>390528</t>
+          <t>389325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>381085</t>
+          <t>380387</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>401776</t>
+          <t>401476</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>749795</t>
+          <t>747152</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>786060</t>
+          <t>785263</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>86,94%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>238964</t>
+          <t>227264</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>402487</t>
+          <t>401886</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>416016</t>
+          <t>420423</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1063043</t>
+          <t>1029097</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>731031</t>
+          <t>726745</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1550173</t>
+          <t>1493989</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>34,58%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1694120</t>
+          <t>1694721</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1857643</t>
+          <t>1869343</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>80,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1161233</t>
+          <t>1195179</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1808260</t>
+          <t>1803853</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>53,73%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,3%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2770710</t>
+          <t>2826894</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3589852</t>
+          <t>3594138</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>83,18%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_TEN-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26028</t>
+          <t>86043</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22418</t>
+          <t>71775</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29671</t>
+          <t>99668</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>340</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47265</t>
+          <t>200627</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43062</t>
+          <t>183869</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>52115</t>
+          <t>217494</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>454</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>73294</t>
+          <t>286670</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>67629</t>
+          <t>263637</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>79063</t>
+          <t>310010</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>45,06%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56514</t>
+          <t>169349</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52871</t>
+          <t>155724</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60124</t>
+          <t>183617</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>60,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>355</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74187</t>
+          <t>231970</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>69337</t>
+          <t>215103</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78390</t>
+          <t>248728</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>531</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>130700</t>
+          <t>401319</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>124931</t>
+          <t>377979</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>136365</t>
+          <t>424352</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>66,85%</t>
+          <t>61,68%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432597</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687989</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87102</t>
+          <t>193420</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80089</t>
+          <t>168769</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94568</t>
+          <t>218316</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>172541</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63012</t>
+          <t>154304</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76390</t>
+          <t>192358</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>518</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>156505</t>
+          <t>365961</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>146146</t>
+          <t>334152</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>166272</t>
+          <t>397404</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>15,54%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>880</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>374577</t>
+          <t>1093345</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>367111</t>
+          <t>1068449</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>381590</t>
+          <t>1117996</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,65%</t>
+          <t>86,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>374954</t>
+          <t>1098200</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>367967</t>
+          <t>1078383</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>381345</t>
+          <t>1116437</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>86,42%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>87,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>749530</t>
+          <t>2191544</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>739763</t>
+          <t>2160101</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>759889</t>
+          <t>2223353</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>86,93%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1286765</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1286765</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1286765</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2749</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557505</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557505</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2557505</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23290</t>
+          <t>91334</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19448</t>
+          <t>76042</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27431</t>
+          <t>109119</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16831</t>
+          <t>60629</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13588</t>
+          <t>48687</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21098</t>
+          <t>72799</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>40120</t>
+          <t>151963</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>34701</t>
+          <t>132076</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>45252</t>
+          <t>174768</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>17,38%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>152271</t>
+          <t>418545</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148130</t>
+          <t>400760</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>156113</t>
+          <t>433837</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>569</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>211163</t>
+          <t>435277</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>206896</t>
+          <t>423107</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>214406</t>
+          <t>447219</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,04%</t>
+          <t>90,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>363435</t>
+          <t>853823</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>358303</t>
+          <t>831018</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>368854</t>
+          <t>873710</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>86,87%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>136419</t>
+          <t>370797</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>127562</t>
+          <t>335364</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>146498</t>
+          <t>403814</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>725</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>133500</t>
+          <t>433797</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>124453</t>
+          <t>401179</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>143034</t>
+          <t>462665</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>269919</t>
+          <t>804594</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>257213</t>
+          <t>761960</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>282459</t>
+          <t>848240</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>583362</t>
+          <t>1681240</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>573283</t>
+          <t>1648223</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>592219</t>
+          <t>1716673</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>81,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>80,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>660303</t>
+          <t>1765447</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>650769</t>
+          <t>1736579</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>669350</t>
+          <t>1798065</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>81,76%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6881</t>
+          <t>3704</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1243665</t>
+          <t>3446686</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1231125</t>
+          <t>3403040</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1256371</t>
+          <t>3489320</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>82,08%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052037</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052037</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052037</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2199244</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251280</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251280</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251280</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79162</t>
+          <t>74331</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>66008</t>
+          <t>64649</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92020</t>
+          <t>83627</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>188218</t>
+          <t>124111</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>172495</t>
+          <t>112903</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>204711</t>
+          <t>135678</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>549</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>267380</t>
+          <t>198442</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>246921</t>
+          <t>184678</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>290654</t>
+          <t>213852</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>43,69%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>149135</t>
+          <t>141465</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>136277</t>
+          <t>132169</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>162289</t>
+          <t>151147</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>206872</t>
+          <t>149570</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>190379</t>
+          <t>138003</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>222595</t>
+          <t>160778</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>54,65%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>50,42%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>648</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>356007</t>
+          <t>291036</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>332733</t>
+          <t>275626</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>376466</t>
+          <t>304800</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>57,11%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>53,38%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>62,27%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395090</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623387</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>179856</t>
+          <t>121106</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97552</t>
+          <t>107024</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>227317</t>
+          <t>135158</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>355702</t>
+          <t>113704</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>166438</t>
+          <t>99792</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>773430</t>
+          <t>129447</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>552</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>535558</t>
+          <t>234809</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>330445</t>
+          <t>215637</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1113815</t>
+          <t>256358</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>14,82%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1228654</t>
+          <t>740912</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1181193</t>
+          <t>726860</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1310958</t>
+          <t>754994</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1030109</t>
+          <t>754476</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>612381</t>
+          <t>738733</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1219373</t>
+          <t>768388</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>87,99%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2258763</t>
+          <t>1495389</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1680506</t>
+          <t>1473840</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2463876</t>
+          <t>1514561</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>86,43%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>87,54%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1408510</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1408510</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1408510</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2794321</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2794321</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2794321</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84826</t>
+          <t>40602</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70476</t>
+          <t>32746</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>101179</t>
+          <t>50619</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51801</t>
+          <t>23250</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41898</t>
+          <t>17384</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62987</t>
+          <t>30769</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>134</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>136627</t>
+          <t>63852</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>117912</t>
+          <t>52640</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>156023</t>
+          <t>75107</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>374975</t>
+          <t>337951</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>358622</t>
+          <t>327934</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>389325</t>
+          <t>345807</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>651</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>391573</t>
+          <t>393625</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>380387</t>
+          <t>386106</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>401476</t>
+          <t>399491</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>766548</t>
+          <t>731576</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>747152</t>
+          <t>720321</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>785263</t>
+          <t>742788</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>93,38%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>628</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>343844</t>
+          <t>236039</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>227264</t>
+          <t>216997</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>401886</t>
+          <t>256334</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>607</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>595722</t>
+          <t>261065</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>420423</t>
+          <t>239328</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1029097</t>
+          <t>283292</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>939565</t>
+          <t>497103</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>726745</t>
+          <t>471302</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1493989</t>
+          <t>527599</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>17,5%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1752763</t>
+          <t>1220328</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1694721</t>
+          <t>1200033</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1869343</t>
+          <t>1239370</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>85,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1628554</t>
+          <t>1297672</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1195179</t>
+          <t>1275445</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1803853</t>
+          <t>1319409</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3704</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3381318</t>
+          <t>2518001</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2826894</t>
+          <t>2487505</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3594138</t>
+          <t>2543802</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>78,26%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>65,42%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>84,37%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2096607</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2096607</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2096607</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224276</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320883</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320883</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320883</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la tensión arterial en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74331</t>
+          <t>26028</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64649</t>
+          <t>22418</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83627</t>
+          <t>29671</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>124111</t>
+          <t>47265</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>112903</t>
+          <t>43062</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>135678</t>
+          <t>52115</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>473</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>198442</t>
+          <t>73294</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>184678</t>
+          <t>67629</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>213852</t>
+          <t>79063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>38,76%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>141465</t>
+          <t>56514</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>132169</t>
+          <t>52871</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>151147</t>
+          <t>60124</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>149570</t>
+          <t>74187</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>138003</t>
+          <t>69337</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>160778</t>
+          <t>78390</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>61,08%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>64,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>785</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>291036</t>
+          <t>130700</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>275626</t>
+          <t>124931</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>304800</t>
+          <t>136365</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>66,85%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>121106</t>
+          <t>87102</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>107024</t>
+          <t>80089</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>135158</t>
+          <t>94568</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>415</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>113704</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>99792</t>
+          <t>63012</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>129447</t>
+          <t>76390</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>946</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>234809</t>
+          <t>156505</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>215637</t>
+          <t>146146</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>256358</t>
+          <t>166272</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>18,35%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>740912</t>
+          <t>374577</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>726860</t>
+          <t>367111</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>754994</t>
+          <t>381590</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>81,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>754476</t>
+          <t>374954</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>738733</t>
+          <t>367967</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>768388</t>
+          <t>381345</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,09%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1495389</t>
+          <t>749530</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1473840</t>
+          <t>739763</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1514561</t>
+          <t>759889</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,18%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>83,87%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40602</t>
+          <t>23290</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32746</t>
+          <t>19448</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50619</t>
+          <t>27431</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23250</t>
+          <t>16831</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17384</t>
+          <t>13588</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30769</t>
+          <t>21098</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>214</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>63852</t>
+          <t>40120</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>52640</t>
+          <t>34701</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>75107</t>
+          <t>45252</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>779</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>337951</t>
+          <t>152271</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>327934</t>
+          <t>148130</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>345807</t>
+          <t>156113</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>84,38%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>393625</t>
+          <t>211163</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>386106</t>
+          <t>206896</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>399491</t>
+          <t>214406</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>731576</t>
+          <t>363435</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>720321</t>
+          <t>358303</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>742788</t>
+          <t>368854</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>831</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>236039</t>
+          <t>136419</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>216997</t>
+          <t>127562</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>256334</t>
+          <t>146498</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>802</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>261065</t>
+          <t>133500</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>239328</t>
+          <t>124453</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>283292</t>
+          <t>143034</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>497103</t>
+          <t>269919</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>471302</t>
+          <t>257213</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>527599</t>
+          <t>282459</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>18,66%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2216</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1220328</t>
+          <t>583362</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1200033</t>
+          <t>573283</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1239370</t>
+          <t>592219</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,79%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2260</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1297672</t>
+          <t>660303</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1275445</t>
+          <t>650769</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1319409</t>
+          <t>669350</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>84,32%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>6881</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2518001</t>
+          <t>1243665</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2487505</t>
+          <t>1231125</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2543802</t>
+          <t>1256371</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>82,17%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,37%</t>
+          <t>83,01%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
